--- a/cea/databases/DE/components/DISTRIBUTION.xlsx
+++ b/cea/databases/DE/components/DISTRIBUTION.xlsx
@@ -1,19 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ge38yoz\CityEnergyAnalyst\cea\databases\DE\components\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F9EE38-D7E5-4444-841A-0917840A8447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="THERMAL_GRID" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="THERMAL_GRID" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">THERMAL_GRID!#REF!</definedName>
     <definedName name="__xlfn_AGGREGATE">#N/A</definedName>
     <definedName name="__xlfn_STDEV_S">#N/A</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">THERMAL_GRID!#REF!</definedName>
   </definedNames>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -128,30 +148,35 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="160" formatCode="0.000"/>
-    <numFmt numFmtId="161" formatCode="#,##0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="11.000000"/>
+      <sz val="11"/>
       <color indexed="64"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="10.000000"/>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.000000"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.000000"/>
+      <sz val="11"/>
       <color indexed="65"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="64"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -233,36 +258,37 @@
     </border>
   </borders>
   <cellStyleXfs count="4">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="3" fillId="2" borderId="1" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="3" fillId="2" borderId="2" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="3" fillId="2" borderId="3" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="4" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="4" numFmtId="160" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="4" numFmtId="161" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 2 2" xfId="2"/>
-    <cellStyle name="Normal 3" xfId="3"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -270,295 +296,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Angsana New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Cordia New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -822,36 +568,39 @@
       <a:lstStyle/>
     </a:lnDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="N8" activeCellId="0" sqref="N8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.26953125"/>
-    <col bestFit="1" customWidth="1" min="2" max="2" width="8.7265625"/>
-    <col bestFit="1" customWidth="1" min="3" max="3" width="10.54296875"/>
-    <col bestFit="1" customWidth="1" min="4" max="4" width="10.1796875"/>
-    <col bestFit="1" customWidth="1" min="5" max="5" width="10.26953125"/>
-    <col bestFit="1" customWidth="1" min="6" max="6" width="14.453125"/>
-    <col bestFit="1" customWidth="1" min="7" max="7" width="14.7265625"/>
-    <col bestFit="1" customWidth="1" min="8" max="8" width="17.26953125"/>
-    <col bestFit="1" customWidth="1" min="10" max="10" width="8.7265625"/>
-    <col bestFit="1" customWidth="1" min="11" max="11" width="10.54296875"/>
-    <col bestFit="1" customWidth="1" min="12" max="12" width="10.1796875"/>
-    <col bestFit="1" customWidth="1" min="13" max="13" width="10.26953125"/>
-    <col bestFit="1" customWidth="1" min="14" max="14" width="14.453125"/>
-    <col bestFit="1" customWidth="1" min="15" max="15" width="14.7265625"/>
-    <col bestFit="1" customWidth="1" min="16" max="16" width="17.26953125"/>
+    <col min="1" max="1" width="10.28515625" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -877,7 +626,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -885,27 +634,27 @@
         <v>20</v>
       </c>
       <c r="C2" s="5">
-        <v>0.0269</v>
+        <v>2.69E-2</v>
       </c>
       <c r="D2" s="5">
-        <v>0.021600000000000001</v>
+        <v>2.1600000000000001E-2</v>
       </c>
       <c r="E2" s="5">
         <v>0.11</v>
       </c>
       <c r="F2" s="5">
         <f t="shared" ref="F2:F28" si="0">-0.0036996392*D2^3+0.2371423972*D2^2-4.12583104461827*10^(-5)*D2</f>
-        <v>0.00010971269349282719</v>
+        <v>1.0971269349282718E-4</v>
       </c>
       <c r="G2" s="5">
         <f t="shared" ref="G2:G28" si="1">1.4442553943*D2^3+2.687492058*D2^2-0.0362157898*D2</f>
-        <v>0.0004861700017105956</v>
+        <v>4.861700017105956E-4</v>
       </c>
       <c r="H2" s="6">
         <v>578.69899999999996</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -913,27 +662,27 @@
         <v>25</v>
       </c>
       <c r="C3" s="5">
-        <v>0.033700000000000001</v>
+        <v>3.3700000000000001E-2</v>
       </c>
       <c r="D3" s="5">
-        <v>0.028500000000000001</v>
+        <v>2.8500000000000001E-2</v>
       </c>
       <c r="E3" s="5">
         <v>0.11</v>
       </c>
       <c r="F3" s="5">
         <f t="shared" si="0"/>
-        <v>0.00019135740686768813</v>
+        <v>1.913574068676881E-4</v>
       </c>
       <c r="G3" s="5">
         <f t="shared" si="1"/>
-        <v>0.0011841986634650752</v>
+        <v>1.1841986634650752E-3</v>
       </c>
       <c r="H3" s="6">
         <v>580.98500000000001</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -941,28 +690,28 @@
         <v>32</v>
       </c>
       <c r="C4" s="5">
-        <v>0.043400000000000001</v>
+        <v>4.3400000000000001E-2</v>
       </c>
       <c r="D4" s="5">
-        <v>0.037200000000000004</v>
+        <v>3.7200000000000004E-2</v>
       </c>
       <c r="E4" s="5">
         <v>0.125</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" si="0"/>
-        <v>0.00032644187262861847</v>
+        <v>3.2644187262861847E-4</v>
       </c>
       <c r="G4" s="5">
         <f t="shared" si="1"/>
-        <v>0.0024461802328990707</v>
+        <v>2.4461802328990707E-3</v>
       </c>
       <c r="H4" s="6">
         <v>619.84400000000005</v>
       </c>
       <c r="J4" s="7"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -970,27 +719,27 @@
         <v>40</v>
       </c>
       <c r="C5" s="5">
-        <v>0.048399999999999999</v>
+        <v>4.8399999999999999E-2</v>
       </c>
       <c r="D5" s="5">
-        <v>0.043099999999999999</v>
+        <v>4.3099999999999999E-2</v>
       </c>
       <c r="E5" s="5">
         <v>0.125</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" si="0"/>
-        <v>0.00043844365110248871</v>
+        <v>4.3844365110248866E-4</v>
       </c>
       <c r="G5" s="5">
         <f t="shared" si="1"/>
-        <v>0.0035470429881169227</v>
+        <v>3.5470429881169227E-3</v>
       </c>
       <c r="H5" s="6">
         <v>641.67899999999997</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -998,27 +747,27 @@
         <v>50</v>
       </c>
       <c r="C6" s="5">
-        <v>0.060299999999999999</v>
+        <v>6.0299999999999999E-2</v>
       </c>
       <c r="D6" s="5">
-        <v>0.0545</v>
+        <v>5.45E-2</v>
       </c>
       <c r="E6" s="5">
         <v>0.14000000000000001</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" si="0"/>
-        <v>0.00070152473485729093</v>
+        <v>7.0152473485729082E-4</v>
       </c>
       <c r="G6" s="5">
         <f t="shared" si="1"/>
-        <v>0.006242556818552617</v>
+        <v>6.242556818552617E-3</v>
       </c>
       <c r="H6" s="6">
         <v>726.58900000000006</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -1026,27 +775,27 @@
         <v>65</v>
       </c>
       <c r="C7" s="5">
-        <v>0.076100000000000001</v>
+        <v>7.6100000000000001E-2</v>
       </c>
       <c r="D7" s="5">
-        <v>0.070300000000000001</v>
+        <v>7.0300000000000001E-2</v>
       </c>
       <c r="E7" s="5">
         <v>0.16</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" si="0"/>
-        <v>0.0011677932488762385</v>
+        <v>1.1677932488762385E-3</v>
       </c>
       <c r="G7" s="5">
         <f t="shared" si="1"/>
-        <v>0.011237633703936833</v>
+        <v>1.1237633703936833E-2</v>
       </c>
       <c r="H7" s="6">
-        <v>788.46000000000004</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>788.46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -1054,27 +803,27 @@
         <v>80</v>
       </c>
       <c r="C8" s="5">
-        <v>0.088900000000000007</v>
+        <v>8.8900000000000007E-2</v>
       </c>
       <c r="D8" s="5">
-        <v>0.082500000000000004</v>
+        <v>8.2500000000000004E-2</v>
       </c>
       <c r="E8" s="5">
-        <v>0.17999999999999999</v>
+        <v>0.18</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" si="0"/>
-        <v>0.0016085692251130278</v>
+        <v>1.6085692251130276E-3</v>
       </c>
       <c r="G8" s="5">
         <f t="shared" si="1"/>
-        <v>0.016114912131652493</v>
+        <v>1.6114912131652493E-2</v>
       </c>
       <c r="H8" s="6">
         <v>903.69600000000003</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -1092,17 +841,17 @@
       </c>
       <c r="F9" s="5">
         <f t="shared" si="0"/>
-        <v>0.0027111568230832792</v>
+        <v>2.7111568230832788E-3</v>
       </c>
       <c r="G9" s="5">
         <f t="shared" si="1"/>
-        <v>0.028722164871930113</v>
+        <v>2.8722164871930113E-2</v>
       </c>
       <c r="H9" s="6">
         <v>1115.9739999999999</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -1120,17 +869,17 @@
       </c>
       <c r="F10" s="5">
         <f t="shared" si="0"/>
-        <v>0.0041492583724399689</v>
+        <v>4.1492583724399689E-3</v>
       </c>
       <c r="G10" s="5">
         <f t="shared" si="1"/>
-        <v>0.045743321706281273</v>
+        <v>4.5743321706281273E-2</v>
       </c>
       <c r="H10" s="6">
         <v>1340.3820000000001</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
@@ -1148,17 +897,17 @@
       </c>
       <c r="F11" s="5">
         <f t="shared" si="0"/>
-        <v>0.0060717795523277541</v>
+        <v>6.0717795523277532E-3</v>
       </c>
       <c r="G11" s="5">
         <f t="shared" si="1"/>
-        <v>0.069201654861878625</v>
+        <v>6.9201654861878625E-2</v>
       </c>
       <c r="H11" s="6">
         <v>1615.7360000000001</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
@@ -1176,7 +925,7 @@
       </c>
       <c r="F12" s="5">
         <f t="shared" si="0"/>
-        <v>0.010424962369432387</v>
+        <v>1.0424962369432387E-2</v>
       </c>
       <c r="G12" s="5">
         <f t="shared" si="1"/>
@@ -1186,7 +935,7 @@
         <v>1923.8420000000001</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
@@ -1200,11 +949,11 @@
         <v>0.26300000000000001</v>
       </c>
       <c r="E13" s="5">
-        <v>0.45000000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" si="0"/>
-        <v>0.016324749745853535</v>
+        <v>1.6324749745853531E-2</v>
       </c>
       <c r="G13" s="5">
         <f t="shared" si="1"/>
@@ -1214,7 +963,7 @@
         <v>2576.4450000000002</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>20</v>
       </c>
@@ -1232,7 +981,7 @@
       </c>
       <c r="F14" s="5">
         <f t="shared" si="0"/>
-        <v>0.023062067095411122</v>
+        <v>2.3062067095411119E-2</v>
       </c>
       <c r="G14" s="5">
         <f t="shared" si="1"/>
@@ -1242,7 +991,7 @@
         <v>3229.047</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>21</v>
       </c>
@@ -1260,7 +1009,7 @@
       </c>
       <c r="F15" s="5">
         <f t="shared" si="0"/>
-        <v>0.027962443538204394</v>
+        <v>2.7962443538204391E-2</v>
       </c>
       <c r="G15" s="5">
         <f t="shared" si="1"/>
@@ -1270,7 +1019,7 @@
         <v>3881.6489999999999</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
@@ -1288,7 +1037,7 @@
       </c>
       <c r="F16" s="5">
         <f t="shared" si="0"/>
-        <v>0.036533488935212466</v>
+        <v>3.6533488935212459E-2</v>
       </c>
       <c r="G16" s="5">
         <f t="shared" si="1"/>
@@ -1297,8 +1046,9 @@
       <c r="H16" s="6">
         <v>3630.3049999999998</v>
       </c>
-    </row>
-    <row r="17">
+      <c r="I16" s="8"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>23</v>
       </c>
@@ -1312,11 +1062,11 @@
         <v>0.4446</v>
       </c>
       <c r="E17" s="5">
-        <v>0.67000000000000004</v>
+        <v>0.67</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" si="0"/>
-        <v>0.046532256996944819</v>
+        <v>4.6532256996944812E-2</v>
       </c>
       <c r="G17" s="5">
         <f t="shared" si="1"/>
@@ -1326,7 +1076,7 @@
         <v>4534.2520000000004</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
@@ -1340,11 +1090,11 @@
         <v>0.49540000000000001</v>
       </c>
       <c r="E18" s="5">
-        <v>0.80000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" si="0"/>
-        <v>0.057729514627809592</v>
+        <v>5.7729514627809585E-2</v>
       </c>
       <c r="G18" s="5">
         <f t="shared" si="1"/>
@@ -1354,7 +1104,7 @@
         <v>5839.4560000000001</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>25</v>
       </c>
@@ -1362,17 +1112,17 @@
         <v>600</v>
       </c>
       <c r="C19" s="5">
-        <v>0.60999999999999999</v>
+        <v>0.61</v>
       </c>
       <c r="D19" s="5">
         <v>0.5958</v>
       </c>
       <c r="E19" s="5">
-        <v>0.90000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" si="0"/>
-        <v>0.083373209100000956</v>
+        <v>8.3373209100000956E-2</v>
       </c>
       <c r="G19" s="5">
         <f t="shared" si="1"/>
@@ -1382,7 +1132,7 @@
         <v>6492.0590000000002</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>26</v>
       </c>
@@ -1400,7 +1150,7 @@
       </c>
       <c r="F20" s="5">
         <f t="shared" si="0"/>
-        <v>0.11327505421568684</v>
+        <v>0.11327505421568683</v>
       </c>
       <c r="G20" s="5">
         <f t="shared" si="1"/>
@@ -1410,7 +1160,7 @@
         <v>7144.6610000000001</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>27</v>
       </c>
@@ -1438,7 +1188,7 @@
         <v>7797.2629999999999</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>28</v>
       </c>
@@ -1456,7 +1206,7 @@
       </c>
       <c r="F22" s="5">
         <f t="shared" si="0"/>
-        <v>0.18685240099592818</v>
+        <v>0.18685240099592815</v>
       </c>
       <c r="G22" s="5">
         <f t="shared" si="1"/>
@@ -1466,7 +1216,7 @@
         <v>8449.866</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>29</v>
       </c>
@@ -1484,7 +1234,7 @@
       </c>
       <c r="F23" s="5">
         <f t="shared" si="0"/>
-        <v>0.23063077034300419</v>
+        <v>0.23063077034300417</v>
       </c>
       <c r="G23" s="5">
         <f t="shared" si="1"/>
@@ -1494,7 +1244,7 @@
         <v>9102.4680000000008</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>30</v>
       </c>
@@ -1524,7 +1274,7 @@
         <v>9717.8389999999999</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>31</v>
       </c>
@@ -1544,7 +1294,7 @@
       </c>
       <c r="F25" s="5">
         <f t="shared" si="0"/>
-        <v>0.33244690751219191</v>
+        <v>0.33244690751219186</v>
       </c>
       <c r="G25" s="5">
         <f t="shared" si="1"/>
@@ -1554,7 +1304,7 @@
         <v>10204.243</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>32</v>
       </c>
@@ -1585,7 +1335,7 @@
         <v>10624.474</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>33</v>
       </c>
@@ -1606,7 +1356,7 @@
       </c>
       <c r="F27" s="5">
         <f t="shared" si="0"/>
-        <v>0.45107349039329842</v>
+        <v>0.45107349039329836</v>
       </c>
       <c r="G27" s="5">
         <f t="shared" si="1"/>
@@ -1616,7 +1366,7 @@
         <v>10978.532999999999</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>34</v>
       </c>
@@ -1637,7 +1387,7 @@
       </c>
       <c r="F28" s="5">
         <f t="shared" si="0"/>
-        <v>0.51699568641575744</v>
+        <v>0.51699568641575733</v>
       </c>
       <c r="G28" s="5">
         <f t="shared" si="1"/>
@@ -1648,10 +1398,9 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection autoFilter="1" deleteColumns="1" deleteRows="1" formatCells="1" formatColumns="1" formatRows="1" insertColumns="1" insertHyperlinks="1" insertRows="1" pivotTables="1" selectLockedCells="1" selectUnlockedCells="1" sheet="0" sort="1"/>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.51180555555555562" footer="0.51180555555555562"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555562" footer="0.51180555555555562"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>